--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina Frei\Documents\Studium\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDBF20-C806-4DF2-B951-4F553C132375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0B988-0413-439A-BE09-305C7BD2429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -723,7 +736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="D678" sqref="D678"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina Frei\Documents\Studium\Bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0B988-0413-439A-BE09-305C7BD2429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063307AE-B1AB-46D5-B6F9-8A0D0D6FCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -38,7 +25,7 @@
     <t>GDENAME</t>
   </si>
   <si>
-    <t>Spital ID</t>
+    <t>Spitalname</t>
   </si>
   <si>
     <t>Fahrzeit in min</t>
@@ -50,31 +37,31 @@
     <t>Grono</t>
   </si>
   <si>
-    <t>SPITAL_Chur</t>
+    <t>Kantonsspital Graubünden, Chur</t>
   </si>
   <si>
-    <t>SPITAL_Samedan</t>
+    <t>Spital Oberengadin, Samedan</t>
   </si>
   <si>
-    <t>SPITAL_Ilanz</t>
+    <t>Regionalspital Surselva, Ilanz</t>
   </si>
   <si>
-    <t>SPITAL_Davos</t>
+    <t>Spital Davos</t>
   </si>
   <si>
-    <t>SPITAL_Schiers</t>
+    <t>Flury Stiftung, Spital Schiers</t>
   </si>
   <si>
-    <t>SPITAL_Thusis</t>
+    <t>Gesundheitszentrum Unterengadin, Scuol</t>
   </si>
   <si>
-    <t>SPITAL_Scuol</t>
+    <t>Ente Ospedaliero Cantonale (EOC), Bellinzona</t>
   </si>
   <si>
-    <t>SPITAL_Poschiavo</t>
+    <t>Spital Thusis</t>
   </si>
   <si>
-    <t>SPITAL_Bellinzona</t>
+    <t>Centro sanitario Valposchiavo</t>
   </si>
   <si>
     <t>Vaz/Obervaz</t>
@@ -736,15 +723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="D678" sqref="D678"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,10 +845,10 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="E7">
-        <v>81.98</v>
+        <v>174.58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -875,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>174.58</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -892,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>178.59</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -909,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="E10">
-        <v>15.17</v>
+        <v>178.59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1011,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E16">
-        <v>17.62</v>
+        <v>86.96</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1028,10 +1015,10 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E17">
-        <v>86.96</v>
+        <v>109.07</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1045,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>93.51</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1062,10 +1049,10 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>109.55</v>
+        <v>93.51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1164,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>17.96</v>
+        <v>81.739999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1181,10 +1168,10 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E26">
-        <v>81.739999999999995</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1198,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>88.29</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1215,10 +1202,10 @@
         <v>13</v>
       </c>
       <c r="D28">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E28">
-        <v>109.89</v>
+        <v>88.29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1300,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>71.84</v>
@@ -1317,10 +1304,10 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E34">
-        <v>23.76</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1334,10 +1321,10 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <v>70.25</v>
+        <v>115.69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1351,10 +1338,10 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E36">
-        <v>83.88</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1368,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="D37">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>115.69</v>
+        <v>83.88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1436,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>111</v>
@@ -1470,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E43">
-        <v>107.97</v>
+        <v>102.53</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1487,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="D44">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E44">
-        <v>102.53</v>
+        <v>155.32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1504,10 +1491,10 @@
         <v>12</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E45">
-        <v>10.33</v>
+        <v>107.97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1521,10 +1508,10 @@
         <v>13</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>155.32</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1589,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>100.59</v>
@@ -1606,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51">
         <v>117.17</v>
@@ -1623,10 +1610,10 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E52">
-        <v>97.57</v>
+        <v>92.13</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1640,10 +1627,10 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="E53">
-        <v>92.13</v>
+        <v>165.41</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1657,10 +1644,10 @@
         <v>12</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E54">
-        <v>0.44</v>
+        <v>97.57</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1674,10 +1661,10 @@
         <v>13</v>
       </c>
       <c r="D55">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>165.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1776,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E61">
-        <v>33.19</v>
+        <v>129.85</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,10 +1780,10 @@
         <v>11</v>
       </c>
       <c r="D62">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62">
-        <v>129.85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1810,10 +1797,10 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>129.54</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1827,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="D64">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>126</v>
+        <v>129.54</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1929,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E70">
-        <v>30.76</v>
+        <v>127.42</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1946,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="D71">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E71">
-        <v>127.42</v>
+        <v>123.57</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -1963,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E72">
-        <v>127.11</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -1980,10 +1967,10 @@
         <v>13</v>
       </c>
       <c r="D73">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E73">
-        <v>123.57</v>
+        <v>127.11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2082,10 +2069,10 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="E79">
-        <v>33.200000000000003</v>
+        <v>129.86000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2099,10 +2086,10 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E80">
-        <v>129.86000000000001</v>
+        <v>126.01</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2116,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="D81">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>129.55000000000001</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2133,10 +2120,10 @@
         <v>13</v>
       </c>
       <c r="D82">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E82">
-        <v>126.01</v>
+        <v>129.55000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2235,10 +2222,10 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E88">
-        <v>34.17</v>
+        <v>130.83000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2252,10 +2239,10 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E89">
-        <v>130.83000000000001</v>
+        <v>126.99</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2269,10 +2256,10 @@
         <v>12</v>
       </c>
       <c r="D90">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>130.52000000000001</v>
+        <v>34.17</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2286,10 +2273,10 @@
         <v>13</v>
       </c>
       <c r="D91">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E91">
-        <v>126.99</v>
+        <v>130.52000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2388,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E97">
-        <v>3.51</v>
+        <v>94.71</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2405,10 +2392,10 @@
         <v>11</v>
       </c>
       <c r="D98">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E98">
-        <v>94.71</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2422,10 +2409,10 @@
         <v>12</v>
       </c>
       <c r="D99">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>98.71</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2439,10 +2426,10 @@
         <v>13</v>
       </c>
       <c r="D100">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E100">
-        <v>96.38</v>
+        <v>98.71</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2541,10 +2528,10 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="E106">
-        <v>9.24</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2558,10 +2545,10 @@
         <v>11</v>
       </c>
       <c r="D107">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E107">
-        <v>101.59</v>
+        <v>102.06</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2575,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="D108">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>105.6</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2592,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="D109">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E109">
-        <v>102.06</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2694,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E115">
-        <v>4.6399999999999997</v>
+        <v>94.59</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -2711,10 +2698,10 @@
         <v>11</v>
       </c>
       <c r="D116">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E116">
-        <v>94.59</v>
+        <v>97.51</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -2728,10 +2715,10 @@
         <v>12</v>
       </c>
       <c r="D117">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>98.59</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -2745,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="D118">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E118">
-        <v>97.51</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2847,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E124">
-        <v>2.08</v>
+        <v>92.32</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -2864,10 +2851,10 @@
         <v>11</v>
       </c>
       <c r="D125">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E125">
-        <v>92.32</v>
+        <v>94.32</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -2881,10 +2868,10 @@
         <v>12</v>
       </c>
       <c r="D126">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>96.33</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -2898,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="D127">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E127">
-        <v>94.32</v>
+        <v>96.33</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3000,10 +2987,10 @@
         <v>10</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="E133">
-        <v>6.58</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3017,10 +3004,10 @@
         <v>11</v>
       </c>
       <c r="D134">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E134">
-        <v>100.11</v>
+        <v>99.46</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -3034,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="D135">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>104.12</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -3051,10 +3038,10 @@
         <v>13</v>
       </c>
       <c r="D136">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E136">
-        <v>99.46</v>
+        <v>104.12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -3153,10 +3140,10 @@
         <v>10</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E142">
-        <v>2.2200000000000002</v>
+        <v>95.75</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3170,10 +3157,10 @@
         <v>11</v>
       </c>
       <c r="D143">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E143">
-        <v>95.75</v>
+        <v>95.09</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -3187,10 +3174,10 @@
         <v>12</v>
       </c>
       <c r="D144">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>99.75</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -3204,10 +3191,10 @@
         <v>13</v>
       </c>
       <c r="D145">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E145">
-        <v>95.09</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3306,10 +3293,10 @@
         <v>10</v>
       </c>
       <c r="D151">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E151">
-        <v>10.039999999999999</v>
+        <v>103.57</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -3323,10 +3310,10 @@
         <v>11</v>
       </c>
       <c r="D152">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E152">
-        <v>103.57</v>
+        <v>102.91</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -3340,10 +3327,10 @@
         <v>12</v>
       </c>
       <c r="D153">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E153">
-        <v>107.57</v>
+        <v>10.039999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3357,10 +3344,10 @@
         <v>13</v>
       </c>
       <c r="D154">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E154">
-        <v>102.91</v>
+        <v>107.57</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3459,10 +3446,10 @@
         <v>10</v>
       </c>
       <c r="D160">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="E160">
-        <v>6.13</v>
+        <v>99.66</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -3476,10 +3463,10 @@
         <v>11</v>
       </c>
       <c r="D161">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E161">
-        <v>99.66</v>
+        <v>99.01</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -3493,10 +3480,10 @@
         <v>12</v>
       </c>
       <c r="D162">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="E162">
-        <v>103.67</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -3510,10 +3497,10 @@
         <v>13</v>
       </c>
       <c r="D163">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E163">
-        <v>99.01</v>
+        <v>103.67</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -3612,10 +3599,10 @@
         <v>10</v>
       </c>
       <c r="D169">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="E169">
-        <v>32.36</v>
+        <v>124.96</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -3629,10 +3616,10 @@
         <v>11</v>
       </c>
       <c r="D170">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="E170">
-        <v>124.96</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -3646,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="D171">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="E171">
-        <v>128.97</v>
+        <v>32.36</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -3663,10 +3650,10 @@
         <v>13</v>
       </c>
       <c r="D172">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="E172">
-        <v>96.97</v>
+        <v>128.97</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -3765,10 +3752,10 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E178">
-        <v>22.54</v>
+        <v>115.14</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -3782,10 +3769,10 @@
         <v>11</v>
       </c>
       <c r="D179">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E179">
-        <v>115.14</v>
+        <v>72.260000000000005</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -3799,10 +3786,10 @@
         <v>12</v>
       </c>
       <c r="D180">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="E180">
-        <v>119.14</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -3816,10 +3803,10 @@
         <v>13</v>
       </c>
       <c r="D181">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E181">
-        <v>72.260000000000005</v>
+        <v>119.14</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -3918,10 +3905,10 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E187">
-        <v>4.2699999999999996</v>
+        <v>97.16</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -3935,10 +3922,10 @@
         <v>11</v>
       </c>
       <c r="D188">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E188">
-        <v>97.16</v>
+        <v>90.74</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
@@ -3952,10 +3939,10 @@
         <v>12</v>
       </c>
       <c r="D189">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>101.16</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -3969,10 +3956,10 @@
         <v>13</v>
       </c>
       <c r="D190">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E190">
-        <v>90.74</v>
+        <v>101.16</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -4071,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="D196">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E196">
-        <v>8.19</v>
+        <v>101.06</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -4088,10 +4075,10 @@
         <v>11</v>
       </c>
       <c r="D197">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E197">
-        <v>101.06</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -4105,10 +4092,10 @@
         <v>12</v>
       </c>
       <c r="D198">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>105.06</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
@@ -4122,10 +4109,10 @@
         <v>13</v>
       </c>
       <c r="D199">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E199">
-        <v>85.45</v>
+        <v>105.06</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -4224,10 +4211,10 @@
         <v>10</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E205">
-        <v>17</v>
+        <v>115.13</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -4241,10 +4228,10 @@
         <v>11</v>
       </c>
       <c r="D206">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E206">
-        <v>115.13</v>
+        <v>109.81</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
@@ -4258,10 +4245,10 @@
         <v>12</v>
       </c>
       <c r="D207">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>113.35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -4275,10 +4262,10 @@
         <v>13</v>
       </c>
       <c r="D208">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E208">
-        <v>109.81</v>
+        <v>113.35</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -4377,10 +4364,10 @@
         <v>10</v>
       </c>
       <c r="D214">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E214">
-        <v>19.25</v>
+        <v>114.85</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -4394,10 +4381,10 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E215">
-        <v>114.85</v>
+        <v>112.07</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -4411,10 +4398,10 @@
         <v>12</v>
       </c>
       <c r="D216">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="E216">
-        <v>115.6</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -4428,10 +4415,10 @@
         <v>13</v>
       </c>
       <c r="D217">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E217">
-        <v>112.07</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -4530,10 +4517,10 @@
         <v>10</v>
       </c>
       <c r="D223">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="E223">
-        <v>13.27</v>
+        <v>105.62</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -4547,10 +4534,10 @@
         <v>11</v>
       </c>
       <c r="D224">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E224">
-        <v>105.62</v>
+        <v>106.09</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -4564,10 +4551,10 @@
         <v>12</v>
       </c>
       <c r="D225">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E225">
-        <v>109.62</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -4581,10 +4568,10 @@
         <v>13</v>
       </c>
       <c r="D226">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E226">
-        <v>106.09</v>
+        <v>109.62</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -4683,10 +4670,10 @@
         <v>10</v>
       </c>
       <c r="D232">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E232">
-        <v>22.38</v>
+        <v>108.32</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -4700,10 +4687,10 @@
         <v>11</v>
       </c>
       <c r="D233">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E233">
-        <v>108.32</v>
+        <v>115.19</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
@@ -4717,10 +4704,10 @@
         <v>12</v>
       </c>
       <c r="D234">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>118.73</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
@@ -4734,10 +4721,10 @@
         <v>13</v>
       </c>
       <c r="D235">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E235">
-        <v>115.19</v>
+        <v>118.73</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -4836,10 +4823,10 @@
         <v>10</v>
       </c>
       <c r="D241">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E241">
-        <v>26.26</v>
+        <v>122.92</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -4853,10 +4840,10 @@
         <v>11</v>
       </c>
       <c r="D242">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E242">
-        <v>122.92</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -4870,10 +4857,10 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E243">
-        <v>122.61</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -4887,10 +4874,10 @@
         <v>13</v>
       </c>
       <c r="D244">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E244">
-        <v>119.07</v>
+        <v>122.61</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -4972,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="D249">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E249">
         <v>35.159999999999997</v>
@@ -4989,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="D250">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E250">
-        <v>17.03</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -5006,10 +4993,10 @@
         <v>11</v>
       </c>
       <c r="D251">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E251">
-        <v>113.6</v>
+        <v>109.84</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
@@ -5023,10 +5010,10 @@
         <v>12</v>
       </c>
       <c r="D252">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E252">
-        <v>113.38</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -5040,10 +5027,10 @@
         <v>13</v>
       </c>
       <c r="D253">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E253">
-        <v>109.84</v>
+        <v>113.38</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -5142,10 +5129,10 @@
         <v>10</v>
       </c>
       <c r="D259">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E259">
-        <v>20.05</v>
+        <v>116.71</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -5159,10 +5146,10 @@
         <v>11</v>
       </c>
       <c r="D260">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E260">
-        <v>116.71</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -5176,10 +5163,10 @@
         <v>12</v>
       </c>
       <c r="D261">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="E261">
-        <v>116.4</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -5193,10 +5180,10 @@
         <v>13</v>
       </c>
       <c r="D262">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E262">
-        <v>112.86</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
@@ -5295,10 +5282,10 @@
         <v>10</v>
       </c>
       <c r="D268">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="E268">
-        <v>127.58</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -5312,10 +5299,10 @@
         <v>11</v>
       </c>
       <c r="D269">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="E269">
-        <v>33.76</v>
+        <v>219.51</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
@@ -5329,10 +5316,10 @@
         <v>12</v>
       </c>
       <c r="D270">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E270">
-        <v>126.08</v>
+        <v>127.58</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
@@ -5346,10 +5333,10 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="E271">
-        <v>219.51</v>
+        <v>126.08</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
@@ -5414,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="D275">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E275">
         <v>60.21</v>
@@ -5431,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="D276">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E276">
         <v>76.78</v>
@@ -5448,10 +5435,10 @@
         <v>10</v>
       </c>
       <c r="D277">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E277">
-        <v>57.18</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
@@ -5465,10 +5452,10 @@
         <v>11</v>
       </c>
       <c r="D278">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="E278">
-        <v>51.74</v>
+        <v>149.11000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
@@ -5482,10 +5469,10 @@
         <v>12</v>
       </c>
       <c r="D279">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E279">
-        <v>41.51</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
@@ -5499,10 +5486,10 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="E280">
-        <v>149.11000000000001</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
@@ -5567,7 +5554,7 @@
         <v>8</v>
       </c>
       <c r="D284">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E284">
         <v>65.650000000000006</v>
@@ -5601,10 +5588,10 @@
         <v>10</v>
       </c>
       <c r="D286">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E286">
-        <v>62.62</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -5618,10 +5605,10 @@
         <v>11</v>
       </c>
       <c r="D287">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E287">
-        <v>57.18</v>
+        <v>154.55000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -5635,10 +5622,10 @@
         <v>12</v>
       </c>
       <c r="D288">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E288">
-        <v>38.32</v>
+        <v>62.62</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -5652,10 +5639,10 @@
         <v>13</v>
       </c>
       <c r="D289">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="E289">
-        <v>154.55000000000001</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -5754,10 +5741,10 @@
         <v>10</v>
       </c>
       <c r="D295">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E295">
-        <v>53.98</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
@@ -5771,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="D296">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="E296">
-        <v>46.58</v>
+        <v>145.91</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
@@ -5788,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="D297">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E297">
-        <v>46.31</v>
+        <v>53.98</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -5805,10 +5792,10 @@
         <v>13</v>
       </c>
       <c r="D298">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="E298">
-        <v>145.91</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
@@ -5890,7 +5877,7 @@
         <v>9</v>
       </c>
       <c r="D303">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E303">
         <v>85.5</v>
@@ -5907,10 +5894,10 @@
         <v>10</v>
       </c>
       <c r="D304">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E304">
-        <v>65.900000000000006</v>
+        <v>60.46</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -5924,10 +5911,10 @@
         <v>11</v>
       </c>
       <c r="D305">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="E305">
-        <v>60.46</v>
+        <v>157.83000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -5941,10 +5928,10 @@
         <v>12</v>
       </c>
       <c r="D306">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E306">
-        <v>33.03</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -5958,10 +5945,10 @@
         <v>13</v>
       </c>
       <c r="D307">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="E307">
-        <v>157.83000000000001</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -6060,10 +6047,10 @@
         <v>10</v>
       </c>
       <c r="D313">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E313">
-        <v>60.63</v>
+        <v>55.19</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -6077,10 +6064,10 @@
         <v>11</v>
       </c>
       <c r="D314">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="E314">
-        <v>55.19</v>
+        <v>152.56</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -6094,10 +6081,10 @@
         <v>12</v>
       </c>
       <c r="D315">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E315">
-        <v>38.85</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -6111,10 +6098,10 @@
         <v>13</v>
       </c>
       <c r="D316">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="E316">
-        <v>152.56</v>
+        <v>38.85</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -6179,7 +6166,7 @@
         <v>8</v>
       </c>
       <c r="D320">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E320">
         <v>69.59</v>
@@ -6213,10 +6200,10 @@
         <v>10</v>
       </c>
       <c r="D322">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E322">
-        <v>61.34</v>
+        <v>61.12</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -6230,10 +6217,10 @@
         <v>11</v>
       </c>
       <c r="D323">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E323">
-        <v>61.12</v>
+        <v>153.27000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -6247,10 +6234,10 @@
         <v>12</v>
       </c>
       <c r="D324">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E324">
-        <v>40.58</v>
+        <v>61.34</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -6264,10 +6251,10 @@
         <v>13</v>
       </c>
       <c r="D325">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="E325">
-        <v>153.27000000000001</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -6352,7 +6339,7 @@
         <v>88</v>
       </c>
       <c r="E330">
-        <v>66.459999999999994</v>
+        <v>66.45</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -6366,10 +6353,10 @@
         <v>10</v>
       </c>
       <c r="D331">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E331">
-        <v>60.82</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -6383,10 +6370,10 @@
         <v>11</v>
       </c>
       <c r="D332">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E332">
-        <v>41.41</v>
+        <v>152.75</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -6400,10 +6387,10 @@
         <v>12</v>
       </c>
       <c r="D333">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E333">
-        <v>53.15</v>
+        <v>60.82</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -6417,10 +6404,10 @@
         <v>13</v>
       </c>
       <c r="D334">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="E334">
-        <v>152.75</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -6519,10 +6506,10 @@
         <v>10</v>
       </c>
       <c r="D340">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E340">
-        <v>62.7</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -6536,10 +6523,10 @@
         <v>11</v>
       </c>
       <c r="D341">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="E341">
-        <v>70.94</v>
+        <v>154.63</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -6553,10 +6540,10 @@
         <v>12</v>
       </c>
       <c r="D342">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E342">
-        <v>50.4</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
@@ -6570,10 +6557,10 @@
         <v>13</v>
       </c>
       <c r="D343">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="E343">
-        <v>154.63</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -6672,10 +6659,10 @@
         <v>10</v>
       </c>
       <c r="D349">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E349">
-        <v>55.53</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
@@ -6689,10 +6676,10 @@
         <v>11</v>
       </c>
       <c r="D350">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="E350">
-        <v>66.3</v>
+        <v>147.46</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
@@ -6706,10 +6693,10 @@
         <v>12</v>
       </c>
       <c r="D351">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E351">
-        <v>45.76</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
@@ -6723,10 +6710,10 @@
         <v>13</v>
       </c>
       <c r="D352">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="E352">
-        <v>147.46</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
@@ -6760,7 +6747,7 @@
         <v>16</v>
       </c>
       <c r="E354">
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -6791,7 +6778,7 @@
         <v>8</v>
       </c>
       <c r="D356">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E356">
         <v>52.04</v>
@@ -6825,10 +6812,10 @@
         <v>10</v>
       </c>
       <c r="D358">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E358">
-        <v>56.91</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -6842,10 +6829,10 @@
         <v>11</v>
       </c>
       <c r="D359">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="E359">
-        <v>43.57</v>
+        <v>148.83000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -6859,10 +6846,10 @@
         <v>12</v>
       </c>
       <c r="D360">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E360">
-        <v>49.23</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -6876,10 +6863,10 @@
         <v>13</v>
       </c>
       <c r="D361">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="E361">
-        <v>148.84</v>
+        <v>49.22</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
@@ -6978,10 +6965,10 @@
         <v>10</v>
       </c>
       <c r="D367">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="E367">
-        <v>87.36</v>
+        <v>179.96</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -6995,10 +6982,10 @@
         <v>11</v>
       </c>
       <c r="D368">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="E368">
-        <v>179.96</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
@@ -7012,10 +6999,10 @@
         <v>12</v>
       </c>
       <c r="D369">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="E369">
-        <v>183.97</v>
+        <v>87.36</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
@@ -7029,10 +7016,10 @@
         <v>13</v>
       </c>
       <c r="D370">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="E370">
-        <v>20.55</v>
+        <v>183.97</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
@@ -7131,10 +7118,10 @@
         <v>10</v>
       </c>
       <c r="D376">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="E376">
-        <v>87.33</v>
+        <v>179.93</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
@@ -7148,10 +7135,10 @@
         <v>11</v>
       </c>
       <c r="D377">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="E377">
-        <v>179.93</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
@@ -7165,10 +7152,10 @@
         <v>12</v>
       </c>
       <c r="D378">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="E378">
-        <v>183.94</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
@@ -7182,10 +7169,10 @@
         <v>13</v>
       </c>
       <c r="D379">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="E379">
-        <v>20.51</v>
+        <v>183.94</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
@@ -7284,10 +7271,10 @@
         <v>10</v>
       </c>
       <c r="D385">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="E385">
-        <v>98.4</v>
+        <v>191</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
@@ -7301,10 +7288,10 @@
         <v>11</v>
       </c>
       <c r="D386">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="E386">
-        <v>191</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -7318,10 +7305,10 @@
         <v>12</v>
       </c>
       <c r="D387">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="E387">
-        <v>195</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
@@ -7335,10 +7322,10 @@
         <v>13</v>
       </c>
       <c r="D388">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="E388">
-        <v>31.58</v>
+        <v>195</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -7437,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="D394">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="E394">
-        <v>89.51</v>
+        <v>182.11</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.35">
@@ -7454,10 +7441,10 @@
         <v>11</v>
       </c>
       <c r="D395">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="E395">
-        <v>182.11</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
@@ -7471,10 +7458,10 @@
         <v>12</v>
       </c>
       <c r="D396">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="E396">
-        <v>186.12</v>
+        <v>89.51</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
@@ -7488,10 +7475,10 @@
         <v>13</v>
       </c>
       <c r="D397">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="E397">
-        <v>22.7</v>
+        <v>186.12</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.35">
@@ -7590,10 +7577,10 @@
         <v>10</v>
       </c>
       <c r="D403">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="E403">
-        <v>71.05</v>
+        <v>163.65</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
@@ -7607,10 +7594,10 @@
         <v>11</v>
       </c>
       <c r="D404">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="E404">
-        <v>163.65</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
@@ -7624,10 +7611,10 @@
         <v>12</v>
       </c>
       <c r="D405">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="E405">
-        <v>167.65</v>
+        <v>71.05</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
@@ -7641,10 +7628,10 @@
         <v>13</v>
       </c>
       <c r="D406">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E406">
-        <v>25.09</v>
+        <v>167.65</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
@@ -7743,10 +7730,10 @@
         <v>10</v>
       </c>
       <c r="D412">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="E412">
-        <v>60.32</v>
+        <v>152.91999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
@@ -7760,10 +7747,10 @@
         <v>11</v>
       </c>
       <c r="D413">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="E413">
-        <v>152.91999999999999</v>
+        <v>33.49</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
@@ -7777,10 +7764,10 @@
         <v>12</v>
       </c>
       <c r="D414">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="E414">
-        <v>156.93</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
@@ -7794,10 +7781,10 @@
         <v>13</v>
       </c>
       <c r="D415">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E415">
-        <v>33.49</v>
+        <v>156.93</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
@@ -7896,10 +7883,10 @@
         <v>10</v>
       </c>
       <c r="D421">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E421">
-        <v>63.45</v>
+        <v>156.05000000000001</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
@@ -7913,10 +7900,10 @@
         <v>11</v>
       </c>
       <c r="D422">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="E422">
-        <v>156.05000000000001</v>
+        <v>34.119999999999997</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
@@ -7930,10 +7917,10 @@
         <v>12</v>
       </c>
       <c r="D423">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="E423">
-        <v>160.05000000000001</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
@@ -7947,10 +7934,10 @@
         <v>13</v>
       </c>
       <c r="D424">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="E424">
-        <v>34.119999999999997</v>
+        <v>160.05000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
@@ -8049,10 +8036,10 @@
         <v>10</v>
       </c>
       <c r="D430">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="E430">
-        <v>76.55</v>
+        <v>169.15</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
@@ -8066,10 +8053,10 @@
         <v>11</v>
       </c>
       <c r="D431">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="E431">
-        <v>169.15</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
@@ -8083,10 +8070,10 @@
         <v>12</v>
       </c>
       <c r="D432">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="E432">
-        <v>173.15</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
@@ -8100,10 +8087,10 @@
         <v>13</v>
       </c>
       <c r="D433">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="E433">
-        <v>18.88</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
@@ -8202,10 +8189,10 @@
         <v>10</v>
       </c>
       <c r="D439">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="E439">
-        <v>81.12</v>
+        <v>173.72</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.35">
@@ -8219,10 +8206,10 @@
         <v>11</v>
       </c>
       <c r="D440">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="E440">
-        <v>173.72</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.35">
@@ -8236,10 +8223,10 @@
         <v>12</v>
       </c>
       <c r="D441">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="E441">
-        <v>177.73</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
@@ -8253,10 +8240,10 @@
         <v>13</v>
       </c>
       <c r="D442">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="E442">
-        <v>13.29</v>
+        <v>177.73</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.35">
@@ -8355,10 +8342,10 @@
         <v>10</v>
       </c>
       <c r="D448">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="E448">
-        <v>83.1</v>
+        <v>175.7</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
@@ -8372,10 +8359,10 @@
         <v>11</v>
       </c>
       <c r="D449">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E449">
-        <v>175.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.35">
@@ -8389,10 +8376,10 @@
         <v>12</v>
       </c>
       <c r="D450">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="E450">
-        <v>179.71</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.35">
@@ -8406,10 +8393,10 @@
         <v>13</v>
       </c>
       <c r="D451">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="E451">
-        <v>11.5</v>
+        <v>179.71</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
@@ -8440,7 +8427,7 @@
         <v>6</v>
       </c>
       <c r="D453">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E453">
         <v>82.44</v>
@@ -8508,10 +8495,10 @@
         <v>10</v>
       </c>
       <c r="D457">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E457">
-        <v>59.17</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.35">
@@ -8525,10 +8512,10 @@
         <v>11</v>
       </c>
       <c r="D458">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="E458">
-        <v>71.36</v>
+        <v>151.99</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.35">
@@ -8542,10 +8529,10 @@
         <v>12</v>
       </c>
       <c r="D459">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="E459">
-        <v>121.61</v>
+        <v>59.17</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.35">
@@ -8559,10 +8546,10 @@
         <v>13</v>
       </c>
       <c r="D460">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E460">
-        <v>151.99</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
@@ -8661,10 +8648,10 @@
         <v>10</v>
       </c>
       <c r="D466">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E466">
-        <v>59.93</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
@@ -8678,10 +8665,10 @@
         <v>11</v>
       </c>
       <c r="D467">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="E467">
-        <v>79.75</v>
+        <v>152.74</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
@@ -8695,10 +8682,10 @@
         <v>12</v>
       </c>
       <c r="D468">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E468">
-        <v>130</v>
+        <v>59.93</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.35">
@@ -8712,10 +8699,10 @@
         <v>13</v>
       </c>
       <c r="D469">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E469">
-        <v>152.74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.35">
@@ -8729,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="D470">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E470">
         <v>31.17</v>
@@ -8814,10 +8801,10 @@
         <v>10</v>
       </c>
       <c r="D475">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E475">
-        <v>56.15</v>
+        <v>73.239999999999995</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
@@ -8831,10 +8818,10 @@
         <v>11</v>
       </c>
       <c r="D476">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E476">
-        <v>73.239999999999995</v>
+        <v>148.96</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
@@ -8848,10 +8835,10 @@
         <v>12</v>
       </c>
       <c r="D477">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="E477">
-        <v>123.49</v>
+        <v>56.15</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.35">
@@ -8865,10 +8852,10 @@
         <v>13</v>
       </c>
       <c r="D478">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E478">
-        <v>148.96</v>
+        <v>123.49</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
@@ -8916,7 +8903,7 @@
         <v>7</v>
       </c>
       <c r="D481">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E481">
         <v>69.08</v>
@@ -8967,10 +8954,10 @@
         <v>10</v>
       </c>
       <c r="D484">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E484">
-        <v>64.08</v>
+        <v>71.819999999999993</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
@@ -8984,10 +8971,10 @@
         <v>11</v>
       </c>
       <c r="D485">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="E485">
-        <v>71.819999999999993</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
@@ -9001,10 +8988,10 @@
         <v>12</v>
       </c>
       <c r="D486">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="E486">
-        <v>122.07</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
@@ -9018,10 +9005,10 @@
         <v>13</v>
       </c>
       <c r="D487">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E487">
-        <v>156.9</v>
+        <v>122.07</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
@@ -9052,7 +9039,7 @@
         <v>6</v>
       </c>
       <c r="D489">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E489">
         <v>79.86</v>
@@ -9120,10 +9107,10 @@
         <v>10</v>
       </c>
       <c r="D493">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E493">
-        <v>60.64</v>
+        <v>68.78</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.35">
@@ -9137,10 +9124,10 @@
         <v>11</v>
       </c>
       <c r="D494">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E494">
-        <v>68.78</v>
+        <v>153.44999999999999</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.35">
@@ -9154,10 +9141,10 @@
         <v>12</v>
       </c>
       <c r="D495">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="E495">
-        <v>119.03</v>
+        <v>60.64</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.35">
@@ -9171,10 +9158,10 @@
         <v>13</v>
       </c>
       <c r="D496">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E496">
-        <v>153.44999999999999</v>
+        <v>119.03</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.35">
@@ -9273,10 +9260,10 @@
         <v>10</v>
       </c>
       <c r="D502">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E502">
-        <v>35.57</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.35">
@@ -9290,10 +9277,10 @@
         <v>11</v>
       </c>
       <c r="D503">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E503">
-        <v>98.12</v>
+        <v>128.38999999999999</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.35">
@@ -9307,10 +9294,10 @@
         <v>12</v>
       </c>
       <c r="D504">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E504">
-        <v>131.91999999999999</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.35">
@@ -9324,10 +9311,10 @@
         <v>13</v>
       </c>
       <c r="D505">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E505">
-        <v>128.38999999999999</v>
+        <v>131.91999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.35">
@@ -9426,10 +9413,10 @@
         <v>10</v>
       </c>
       <c r="D511">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E511">
-        <v>34.590000000000003</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.35">
@@ -9443,10 +9430,10 @@
         <v>11</v>
       </c>
       <c r="D512">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E512">
-        <v>92.2</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.35">
@@ -9460,10 +9447,10 @@
         <v>12</v>
       </c>
       <c r="D513">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E513">
-        <v>130.94</v>
+        <v>34.590000000000003</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.35">
@@ -9477,10 +9464,10 @@
         <v>13</v>
       </c>
       <c r="D514">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E514">
-        <v>127.4</v>
+        <v>130.94</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.35">
@@ -9579,10 +9566,10 @@
         <v>10</v>
       </c>
       <c r="D520">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E520">
-        <v>48.41</v>
+        <v>98.63</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.35">
@@ -9596,10 +9583,10 @@
         <v>11</v>
       </c>
       <c r="D521">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E521">
-        <v>98.63</v>
+        <v>141.22</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.35">
@@ -9613,10 +9600,10 @@
         <v>12</v>
       </c>
       <c r="D522">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="E522">
-        <v>144.76</v>
+        <v>48.41</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.35">
@@ -9630,10 +9617,10 @@
         <v>13</v>
       </c>
       <c r="D523">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E523">
-        <v>141.22</v>
+        <v>144.76</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.35">
@@ -9732,10 +9719,10 @@
         <v>10</v>
       </c>
       <c r="D529">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E529">
-        <v>44.68</v>
+        <v>90.66</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.35">
@@ -9749,10 +9736,10 @@
         <v>11</v>
       </c>
       <c r="D530">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E530">
-        <v>90.66</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
@@ -9766,10 +9753,10 @@
         <v>12</v>
       </c>
       <c r="D531">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="E531">
-        <v>141.04</v>
+        <v>44.68</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
@@ -9783,10 +9770,10 @@
         <v>13</v>
       </c>
       <c r="D532">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E532">
-        <v>137.5</v>
+        <v>141.04</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.35">
@@ -9885,10 +9872,10 @@
         <v>10</v>
       </c>
       <c r="D538">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E538">
-        <v>44.72</v>
+        <v>93.88</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
@@ -9902,10 +9889,10 @@
         <v>11</v>
       </c>
       <c r="D539">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="E539">
-        <v>93.88</v>
+        <v>137.54</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.35">
@@ -9919,10 +9906,10 @@
         <v>12</v>
       </c>
       <c r="D540">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="E540">
-        <v>141.07</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.35">
@@ -9936,10 +9923,10 @@
         <v>13</v>
       </c>
       <c r="D541">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E541">
-        <v>137.54</v>
+        <v>141.07</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.35">
@@ -10038,10 +10025,10 @@
         <v>10</v>
       </c>
       <c r="D547">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E547">
-        <v>42.33</v>
+        <v>87.67</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.35">
@@ -10055,10 +10042,10 @@
         <v>11</v>
       </c>
       <c r="D548">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E548">
-        <v>87.67</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.35">
@@ -10072,10 +10059,10 @@
         <v>12</v>
       </c>
       <c r="D549">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E549">
-        <v>138.68</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
@@ -10089,10 +10076,10 @@
         <v>13</v>
       </c>
       <c r="D550">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E550">
-        <v>135.15</v>
+        <v>138.68</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
@@ -10123,7 +10110,7 @@
         <v>6</v>
       </c>
       <c r="D552">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E552">
         <v>89.39</v>
@@ -10191,10 +10178,10 @@
         <v>10</v>
       </c>
       <c r="D556">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E556">
-        <v>50.43</v>
+        <v>78.31</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
@@ -10208,10 +10195,10 @@
         <v>11</v>
       </c>
       <c r="D557">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="E557">
-        <v>78.31</v>
+        <v>143.25</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.35">
@@ -10225,10 +10212,10 @@
         <v>12</v>
       </c>
       <c r="D558">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="E558">
-        <v>128.56</v>
+        <v>50.43</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.35">
@@ -10242,10 +10229,10 @@
         <v>13</v>
       </c>
       <c r="D559">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E559">
-        <v>143.25</v>
+        <v>128.56</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.35">
@@ -10344,10 +10331,10 @@
         <v>10</v>
       </c>
       <c r="D565">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E565">
-        <v>49.27</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.35">
@@ -10361,10 +10348,10 @@
         <v>11</v>
       </c>
       <c r="D566">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E566">
-        <v>85.25</v>
+        <v>142.09</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.35">
@@ -10378,10 +10365,10 @@
         <v>12</v>
       </c>
       <c r="D567">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="E567">
-        <v>145.63</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
@@ -10395,10 +10382,10 @@
         <v>13</v>
       </c>
       <c r="D568">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E568">
-        <v>142.09</v>
+        <v>145.63</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.35">
@@ -10497,10 +10484,10 @@
         <v>10</v>
       </c>
       <c r="D574">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="E574">
-        <v>66.58</v>
+        <v>163.24</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.35">
@@ -10514,10 +10501,10 @@
         <v>11</v>
       </c>
       <c r="D575">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="E575">
-        <v>163.24</v>
+        <v>92.16</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
@@ -10531,10 +10518,10 @@
         <v>12</v>
       </c>
       <c r="D576">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="E576">
-        <v>162.93</v>
+        <v>66.58</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.35">
@@ -10548,10 +10535,10 @@
         <v>13</v>
       </c>
       <c r="D577">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E577">
-        <v>92.16</v>
+        <v>162.93</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.35">
@@ -10650,10 +10637,10 @@
         <v>10</v>
       </c>
       <c r="D583">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="E583">
-        <v>71.599999999999994</v>
+        <v>168.26</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
@@ -10667,10 +10654,10 @@
         <v>11</v>
       </c>
       <c r="D584">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E584">
-        <v>168.26</v>
+        <v>87.28</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.35">
@@ -10684,10 +10671,10 @@
         <v>12</v>
       </c>
       <c r="D585">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="E585">
-        <v>167.95</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.35">
@@ -10701,10 +10688,10 @@
         <v>13</v>
       </c>
       <c r="D586">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="E586">
-        <v>87.28</v>
+        <v>167.95</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
@@ -10803,10 +10790,10 @@
         <v>10</v>
       </c>
       <c r="D592">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E592">
-        <v>59.07</v>
+        <v>155.72999999999999</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.35">
@@ -10820,10 +10807,10 @@
         <v>11</v>
       </c>
       <c r="D593">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="E593">
-        <v>155.72999999999999</v>
+        <v>99.43</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.35">
@@ -10837,10 +10824,10 @@
         <v>12</v>
       </c>
       <c r="D594">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="E594">
-        <v>155.43</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.35">
@@ -10854,10 +10841,10 @@
         <v>13</v>
       </c>
       <c r="D595">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E595">
-        <v>99.43</v>
+        <v>155.43</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
@@ -10956,10 +10943,10 @@
         <v>10</v>
       </c>
       <c r="D601">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="E601">
-        <v>75.92</v>
+        <v>172.58</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.35">
@@ -10973,10 +10960,10 @@
         <v>11</v>
       </c>
       <c r="D602">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="E602">
-        <v>172.58</v>
+        <v>112.72</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.35">
@@ -10990,10 +10977,10 @@
         <v>12</v>
       </c>
       <c r="D603">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="E603">
-        <v>172.28</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.35">
@@ -11007,10 +10994,10 @@
         <v>13</v>
       </c>
       <c r="D604">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="E604">
-        <v>112.72</v>
+        <v>172.28</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.35">
@@ -11109,10 +11096,10 @@
         <v>10</v>
       </c>
       <c r="D610">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="E610">
-        <v>22.56</v>
+        <v>115.16</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.35">
@@ -11126,10 +11113,10 @@
         <v>11</v>
       </c>
       <c r="D611">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E611">
-        <v>115.16</v>
+        <v>87.17</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.35">
@@ -11143,10 +11130,10 @@
         <v>12</v>
       </c>
       <c r="D612">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="E612">
-        <v>119.16</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.35">
@@ -11160,10 +11147,10 @@
         <v>13</v>
       </c>
       <c r="D613">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="E613">
-        <v>87.17</v>
+        <v>119.16</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.35">
@@ -11245,7 +11232,7 @@
         <v>9</v>
       </c>
       <c r="D618">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E618">
         <v>19.75</v>
@@ -11262,10 +11249,10 @@
         <v>10</v>
       </c>
       <c r="D619">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E619">
-        <v>32.22</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.35">
@@ -11279,10 +11266,10 @@
         <v>11</v>
       </c>
       <c r="D620">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E620">
-        <v>98.19</v>
+        <v>125.03</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.35">
@@ -11296,10 +11283,10 @@
         <v>12</v>
       </c>
       <c r="D621">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E621">
-        <v>128.57</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.35">
@@ -11313,10 +11300,10 @@
         <v>13</v>
       </c>
       <c r="D622">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E622">
-        <v>125.03</v>
+        <v>128.57</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.35">
@@ -11415,10 +11402,10 @@
         <v>10</v>
       </c>
       <c r="D628">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E628">
-        <v>44.9</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.35">
@@ -11432,10 +11419,10 @@
         <v>11</v>
       </c>
       <c r="D629">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E629">
-        <v>49.63</v>
+        <v>136.83000000000001</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.35">
@@ -11449,10 +11436,10 @@
         <v>12</v>
       </c>
       <c r="D630">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E630">
-        <v>99.88</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.35">
@@ -11466,10 +11453,10 @@
         <v>13</v>
       </c>
       <c r="D631">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E631">
-        <v>136.83000000000001</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.35">
@@ -11568,10 +11555,10 @@
         <v>10</v>
       </c>
       <c r="D637">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E637">
-        <v>13.69</v>
+        <v>106.29</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.35">
@@ -11585,10 +11572,10 @@
         <v>11</v>
       </c>
       <c r="D638">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E638">
-        <v>106.29</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.35">
@@ -11602,10 +11589,10 @@
         <v>12</v>
       </c>
       <c r="D639">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E639">
-        <v>110.29</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.35">
@@ -11619,10 +11606,10 @@
         <v>13</v>
       </c>
       <c r="D640">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E640">
-        <v>81.86</v>
+        <v>110.29</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.35">
@@ -11721,10 +11708,10 @@
         <v>10</v>
       </c>
       <c r="D646">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E646">
-        <v>107.62</v>
+        <v>65.83</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.35">
@@ -11738,10 +11725,10 @@
         <v>11</v>
       </c>
       <c r="D647">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="E647">
-        <v>65.83</v>
+        <v>199.55</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.35">
@@ -11755,10 +11742,10 @@
         <v>12</v>
       </c>
       <c r="D648">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E648">
-        <v>71.95</v>
+        <v>107.62</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.35">
@@ -11772,10 +11759,10 @@
         <v>13</v>
       </c>
       <c r="D649">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="E649">
-        <v>199.55</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.35">
@@ -11874,10 +11861,10 @@
         <v>10</v>
       </c>
       <c r="D655">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="E655">
-        <v>3.11</v>
+        <v>96.85</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.35">
@@ -11891,10 +11878,10 @@
         <v>11</v>
       </c>
       <c r="D656">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E656">
-        <v>96.85</v>
+        <v>97.32</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.35">
@@ -11908,10 +11895,10 @@
         <v>12</v>
       </c>
       <c r="D657">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="E657">
-        <v>100.86</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.35">
@@ -11925,10 +11912,10 @@
         <v>13</v>
       </c>
       <c r="D658">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E658">
-        <v>97.32</v>
+        <v>100.86</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.35">
@@ -12027,10 +12014,10 @@
         <v>10</v>
       </c>
       <c r="D664">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E664">
-        <v>84.3</v>
+        <v>92.53</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.35">
@@ -12044,10 +12031,10 @@
         <v>11</v>
       </c>
       <c r="D665">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E665">
-        <v>92.53</v>
+        <v>122.26</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.35">
@@ -12061,10 +12048,10 @@
         <v>12</v>
       </c>
       <c r="D666">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E666">
-        <v>71.989999999999995</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
@@ -12078,10 +12065,10 @@
         <v>13</v>
       </c>
       <c r="D667">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="E667">
-        <v>122.26</v>
+        <v>71.989999999999995</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.35">
@@ -12149,7 +12136,7 @@
         <v>61</v>
       </c>
       <c r="E671">
-        <v>43.48</v>
+        <v>43.47</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.35">
@@ -12163,7 +12150,7 @@
         <v>9</v>
       </c>
       <c r="D672">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E672">
         <v>38.049999999999997</v>
@@ -12180,10 +12167,10 @@
         <v>10</v>
       </c>
       <c r="D673">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E673">
-        <v>34.81</v>
+        <v>94.07</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.35">
@@ -12197,10 +12184,10 @@
         <v>11</v>
       </c>
       <c r="D674">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E674">
-        <v>94.07</v>
+        <v>127.63</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.35">
@@ -12214,10 +12201,10 @@
         <v>12</v>
       </c>
       <c r="D675">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="E675">
-        <v>100.61</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
@@ -12231,10 +12218,10 @@
         <v>13</v>
       </c>
       <c r="D676">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E676">
-        <v>127.63</v>
+        <v>100.61</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
@@ -12333,10 +12320,10 @@
         <v>10</v>
       </c>
       <c r="D682">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E682">
-        <v>47.16</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
@@ -12350,10 +12337,10 @@
         <v>11</v>
       </c>
       <c r="D683">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E683">
-        <v>81.8</v>
+        <v>139.97</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.35">
@@ -12367,10 +12354,10 @@
         <v>12</v>
       </c>
       <c r="D684">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E684">
-        <v>143.51</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.35">
@@ -12384,10 +12371,10 @@
         <v>13</v>
       </c>
       <c r="D685">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E685">
-        <v>139.97</v>
+        <v>143.51</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.35">
@@ -12452,7 +12439,7 @@
         <v>8</v>
       </c>
       <c r="D689">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E689">
         <v>46.1</v>
@@ -12486,10 +12473,10 @@
         <v>10</v>
       </c>
       <c r="D691">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E691">
-        <v>41.24</v>
+        <v>89.24</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
@@ -12503,10 +12490,10 @@
         <v>11</v>
       </c>
       <c r="D692">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E692">
-        <v>89.24</v>
+        <v>134.06</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
@@ -12520,10 +12507,10 @@
         <v>12</v>
       </c>
       <c r="D693">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="E693">
-        <v>137.6</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
@@ -12537,10 +12524,10 @@
         <v>13</v>
       </c>
       <c r="D694">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E694">
-        <v>134.06</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.35">
@@ -12639,10 +12626,10 @@
         <v>10</v>
       </c>
       <c r="D700">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E700">
-        <v>54.78</v>
+        <v>151.44</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
@@ -12656,10 +12643,10 @@
         <v>11</v>
       </c>
       <c r="D701">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="E701">
-        <v>151.44</v>
+        <v>103.72</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.35">
@@ -12673,10 +12660,10 @@
         <v>12</v>
       </c>
       <c r="D702">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="E702">
-        <v>151.13999999999999</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
@@ -12690,10 +12677,10 @@
         <v>13</v>
       </c>
       <c r="D703">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E703">
-        <v>103.72</v>
+        <v>151.13999999999999</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
@@ -12792,10 +12779,10 @@
         <v>10</v>
       </c>
       <c r="D709">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E709">
-        <v>30.86</v>
+        <v>128.99</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.35">
@@ -12809,10 +12796,10 @@
         <v>11</v>
       </c>
       <c r="D710">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E710">
-        <v>128.99</v>
+        <v>123.68</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.35">
@@ -12826,10 +12813,10 @@
         <v>12</v>
       </c>
       <c r="D711">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E711">
-        <v>127.21</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.35">
@@ -12843,10 +12830,10 @@
         <v>13</v>
       </c>
       <c r="D712">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E712">
-        <v>123.68</v>
+        <v>127.21</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.35">
@@ -12945,10 +12932,10 @@
         <v>10</v>
       </c>
       <c r="D718">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="E718">
-        <v>46.54</v>
+        <v>143.19999999999999</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.35">
@@ -12962,10 +12949,10 @@
         <v>11</v>
       </c>
       <c r="D719">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E719">
-        <v>143.19999999999999</v>
+        <v>130.06</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.35">
@@ -12979,10 +12966,10 @@
         <v>12</v>
       </c>
       <c r="D720">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E720">
-        <v>142.9</v>
+        <v>46.54</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.35">
@@ -12996,10 +12983,10 @@
         <v>13</v>
       </c>
       <c r="D721">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E721">
-        <v>130.06</v>
+        <v>142.9</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
@@ -13030,7 +13017,7 @@
         <v>6</v>
       </c>
       <c r="D723">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E723">
         <v>69.83</v>
@@ -13098,10 +13085,10 @@
         <v>10</v>
       </c>
       <c r="D727">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E727">
-        <v>110.5</v>
+        <v>16.690000000000001</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -13115,10 +13102,10 @@
         <v>11</v>
       </c>
       <c r="D728">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="E728">
-        <v>16.690000000000001</v>
+        <v>202.43</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
@@ -13132,10 +13119,10 @@
         <v>12</v>
       </c>
       <c r="D729">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E729">
-        <v>109</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
@@ -13149,10 +13136,10 @@
         <v>13</v>
       </c>
       <c r="D730">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="E730">
-        <v>202.43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
@@ -13251,10 +13238,10 @@
         <v>10</v>
       </c>
       <c r="D736">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E736">
-        <v>54.48</v>
+        <v>133.26</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
@@ -13268,10 +13255,10 @@
         <v>11</v>
       </c>
       <c r="D737">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E737">
-        <v>133.26</v>
+        <v>147.30000000000001</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
@@ -13285,10 +13272,10 @@
         <v>12</v>
       </c>
       <c r="D738">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E738">
-        <v>139.6</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
@@ -13302,10 +13289,10 @@
         <v>13</v>
       </c>
       <c r="D739">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E739">
-        <v>147.30000000000001</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
@@ -13404,10 +13391,10 @@
         <v>10</v>
       </c>
       <c r="D745">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="E745">
-        <v>36.840000000000003</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -13421,10 +13408,10 @@
         <v>11</v>
       </c>
       <c r="D746">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E746">
-        <v>133.5</v>
+        <v>122.04</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.35">
@@ -13438,10 +13425,10 @@
         <v>12</v>
       </c>
       <c r="D747">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="E747">
-        <v>133.19999999999999</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.35">
@@ -13455,10 +13442,10 @@
         <v>13</v>
       </c>
       <c r="D748">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E748">
-        <v>122.04</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
@@ -13557,10 +13544,10 @@
         <v>10</v>
       </c>
       <c r="D754">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E754">
-        <v>21.2</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.35">
@@ -13574,10 +13561,10 @@
         <v>11</v>
       </c>
       <c r="D755">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E755">
-        <v>72.78</v>
+        <v>113.13</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.35">
@@ -13591,10 +13578,10 @@
         <v>12</v>
       </c>
       <c r="D756">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E756">
-        <v>81.31</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.35">
@@ -13608,10 +13595,10 @@
         <v>13</v>
       </c>
       <c r="D757">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E757">
-        <v>113.13</v>
+        <v>81.31</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
@@ -13710,10 +13697,10 @@
         <v>10</v>
       </c>
       <c r="D763">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E763">
-        <v>57.33</v>
+        <v>153.99</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.35">
@@ -13727,10 +13714,10 @@
         <v>11</v>
       </c>
       <c r="D764">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E764">
-        <v>153.99</v>
+        <v>141.88999999999999</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.35">
@@ -13744,10 +13731,10 @@
         <v>12</v>
       </c>
       <c r="D765">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="E765">
-        <v>153.68</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.35">
@@ -13761,10 +13748,10 @@
         <v>13</v>
       </c>
       <c r="D766">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E766">
-        <v>141.88999999999999</v>
+        <v>153.68</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.35">
@@ -13863,10 +13850,10 @@
         <v>10</v>
       </c>
       <c r="D772">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E772">
-        <v>10.17</v>
+        <v>102.52</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
@@ -13880,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="D773">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E773">
-        <v>102.52</v>
+        <v>102.99</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
@@ -13897,10 +13884,10 @@
         <v>12</v>
       </c>
       <c r="D774">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E774">
-        <v>106.53</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.35">
@@ -13914,10 +13901,10 @@
         <v>13</v>
       </c>
       <c r="D775">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E775">
-        <v>102.99</v>
+        <v>106.53</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.35">
@@ -13948,7 +13935,7 @@
         <v>6</v>
       </c>
       <c r="D777">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E777">
         <v>52.86</v>
@@ -14016,10 +14003,10 @@
         <v>10</v>
       </c>
       <c r="D781">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E781">
-        <v>93.53</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.35">
@@ -14033,10 +14020,10 @@
         <v>11</v>
       </c>
       <c r="D782">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="E782">
-        <v>1.49</v>
+        <v>185.46</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.35">
@@ -14050,10 +14037,10 @@
         <v>12</v>
       </c>
       <c r="D783">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E783">
-        <v>92.03</v>
+        <v>93.53</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.35">
@@ -14067,10 +14054,10 @@
         <v>13</v>
       </c>
       <c r="D784">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="E784">
-        <v>185.46</v>
+        <v>92.03</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.35">
@@ -14084,7 +14071,7 @@
         <v>5</v>
       </c>
       <c r="D785">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E785">
         <v>77.06</v>
@@ -14101,10 +14088,10 @@
         <v>6</v>
       </c>
       <c r="D786">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E786">
-        <v>26.27</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.35">
@@ -14169,10 +14156,10 @@
         <v>10</v>
       </c>
       <c r="D790">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E790">
-        <v>73.11</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.35">
@@ -14186,10 +14173,10 @@
         <v>11</v>
       </c>
       <c r="D791">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="E791">
-        <v>27.44</v>
+        <v>165.04</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.35">
@@ -14203,10 +14190,10 @@
         <v>12</v>
       </c>
       <c r="D792">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E792">
-        <v>65.430000000000007</v>
+        <v>73.11</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
@@ -14220,10 +14207,10 @@
         <v>13</v>
       </c>
       <c r="D793">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="E793">
-        <v>165.04</v>
+        <v>65.430000000000007</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.35">
@@ -14322,10 +14309,10 @@
         <v>10</v>
       </c>
       <c r="D799">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="E799">
-        <v>90.65</v>
+        <v>183.25</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.35">
@@ -14339,10 +14326,10 @@
         <v>11</v>
       </c>
       <c r="D800">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="E800">
-        <v>183.25</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.35">
@@ -14356,10 +14343,10 @@
         <v>12</v>
       </c>
       <c r="D801">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E801">
-        <v>187.26</v>
+        <v>90.65</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.35">
@@ -14373,10 +14360,10 @@
         <v>13</v>
       </c>
       <c r="D802">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E802">
-        <v>23.83</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -14475,10 +14462,10 @@
         <v>10</v>
       </c>
       <c r="D808">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E808">
-        <v>22.74</v>
+        <v>89.58</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.35">
@@ -14492,10 +14479,10 @@
         <v>11</v>
       </c>
       <c r="D809">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E809">
-        <v>89.58</v>
+        <v>114.67</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.35">
@@ -14509,10 +14496,10 @@
         <v>12</v>
       </c>
       <c r="D810">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E810">
-        <v>78.7</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.35">
@@ -14526,10 +14513,10 @@
         <v>13</v>
       </c>
       <c r="D811">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E811">
-        <v>114.67</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.35">
@@ -14628,10 +14615,10 @@
         <v>10</v>
       </c>
       <c r="D817">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="E817">
-        <v>49.24</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
@@ -14645,10 +14632,10 @@
         <v>11</v>
       </c>
       <c r="D818">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E818">
-        <v>145.9</v>
+        <v>117.42</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
@@ -14662,10 +14649,10 @@
         <v>12</v>
       </c>
       <c r="D819">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="E819">
-        <v>145.59</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
@@ -14679,10 +14666,10 @@
         <v>13</v>
       </c>
       <c r="D820">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E820">
-        <v>117.42</v>
+        <v>145.59</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.35">
@@ -14781,10 +14768,10 @@
         <v>10</v>
       </c>
       <c r="D826">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E826">
-        <v>60.19</v>
+        <v>71.47</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.35">
@@ -14798,10 +14785,10 @@
         <v>11</v>
       </c>
       <c r="D827">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E827">
-        <v>71.47</v>
+        <v>153.01</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
@@ -14815,10 +14802,10 @@
         <v>12</v>
       </c>
       <c r="D828">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="E828">
-        <v>121.72</v>
+        <v>60.19</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.35">
@@ -14832,10 +14819,10 @@
         <v>13</v>
       </c>
       <c r="D829">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E829">
-        <v>153.01</v>
+        <v>121.72</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.35">
@@ -14934,10 +14921,10 @@
         <v>10</v>
       </c>
       <c r="D835">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E835">
-        <v>0.33</v>
+        <v>93.79</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.35">
@@ -14951,10 +14938,10 @@
         <v>11</v>
       </c>
       <c r="D836">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E836">
-        <v>93.79</v>
+        <v>93.14</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.35">
@@ -14968,10 +14955,10 @@
         <v>12</v>
       </c>
       <c r="D837">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E837">
-        <v>97.8</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.35">
@@ -14985,10 +14972,10 @@
         <v>13</v>
       </c>
       <c r="D838">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E838">
-        <v>93.14</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.35">
@@ -15087,10 +15074,10 @@
         <v>10</v>
       </c>
       <c r="D844">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E844">
-        <v>30.25</v>
+        <v>69.989999999999995</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.35">
@@ -15104,10 +15091,10 @@
         <v>11</v>
       </c>
       <c r="D845">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E845">
-        <v>69.989999999999995</v>
+        <v>122.18</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.35">
@@ -15121,10 +15108,10 @@
         <v>12</v>
       </c>
       <c r="D846">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E846">
-        <v>67.75</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.35">
@@ -15138,10 +15125,10 @@
         <v>13</v>
       </c>
       <c r="D847">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E847">
-        <v>122.18</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.35">
@@ -15223,7 +15210,7 @@
         <v>9</v>
       </c>
       <c r="D852">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E852">
         <v>69.91</v>
@@ -15240,10 +15227,10 @@
         <v>10</v>
       </c>
       <c r="D853">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="E853">
-        <v>51.69</v>
+        <v>148.35</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.35">
@@ -15257,10 +15244,10 @@
         <v>11</v>
       </c>
       <c r="D854">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="E854">
-        <v>148.35</v>
+        <v>112.04</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.35">
@@ -15274,10 +15261,10 @@
         <v>12</v>
       </c>
       <c r="D855">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="E855">
-        <v>148.04</v>
+        <v>51.69</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.35">
@@ -15291,10 +15278,10 @@
         <v>13</v>
       </c>
       <c r="D856">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="E856">
-        <v>112.04</v>
+        <v>148.04</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.35">
@@ -15393,10 +15380,10 @@
         <v>10</v>
       </c>
       <c r="D862">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E862">
-        <v>26.46</v>
+        <v>119.06</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.35">
@@ -15410,10 +15397,10 @@
         <v>11</v>
       </c>
       <c r="D863">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="E863">
-        <v>119.06</v>
+        <v>67.849999999999994</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.35">
@@ -15427,10 +15414,10 @@
         <v>12</v>
       </c>
       <c r="D864">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="E864">
-        <v>123.06</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.35">
@@ -15444,10 +15431,10 @@
         <v>13</v>
       </c>
       <c r="D865">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="E865">
-        <v>67.849999999999994</v>
+        <v>123.06</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.35">
@@ -15512,7 +15499,7 @@
         <v>8</v>
       </c>
       <c r="D869">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E869">
         <v>56.09</v>
@@ -15529,7 +15516,7 @@
         <v>9</v>
       </c>
       <c r="D870">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E870">
         <v>72.66</v>
@@ -15546,10 +15533,10 @@
         <v>10</v>
       </c>
       <c r="D871">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E871">
-        <v>53.6</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.35">
@@ -15563,10 +15550,10 @@
         <v>11</v>
       </c>
       <c r="D872">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="E872">
-        <v>47.62</v>
+        <v>145.53</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.35">
@@ -15580,10 +15567,10 @@
         <v>12</v>
       </c>
       <c r="D873">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E873">
-        <v>45.93</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.35">
@@ -15597,10 +15584,10 @@
         <v>13</v>
       </c>
       <c r="D874">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="E874">
-        <v>145.53</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.35">
@@ -15682,7 +15669,7 @@
         <v>9</v>
       </c>
       <c r="D879">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E879">
         <v>64.23</v>
@@ -15699,10 +15686,10 @@
         <v>10</v>
       </c>
       <c r="D880">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="E880">
-        <v>14.59</v>
+        <v>107.45</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.35">
@@ -15716,10 +15703,10 @@
         <v>11</v>
       </c>
       <c r="D881">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E881">
-        <v>107.45</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.35">
@@ -15733,10 +15720,10 @@
         <v>12</v>
       </c>
       <c r="D882">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="E882">
-        <v>111.45</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.35">
@@ -15750,10 +15737,10 @@
         <v>13</v>
       </c>
       <c r="D883">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E883">
-        <v>90.06</v>
+        <v>111.45</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.35">
@@ -15852,10 +15839,10 @@
         <v>10</v>
       </c>
       <c r="D889">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E889">
-        <v>71</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.35">
@@ -15869,10 +15856,10 @@
         <v>11</v>
       </c>
       <c r="D890">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="E890">
-        <v>57.81</v>
+        <v>163.81</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.35">
@@ -15886,10 +15873,10 @@
         <v>12</v>
       </c>
       <c r="D891">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E891">
-        <v>108.06</v>
+        <v>71</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.35">
@@ -15903,10 +15890,10 @@
         <v>13</v>
       </c>
       <c r="D892">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="E892">
-        <v>163.81</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.35">
@@ -16005,10 +15992,10 @@
         <v>10</v>
       </c>
       <c r="D898">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="E898">
-        <v>25.51</v>
+        <v>104.21</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.35">
@@ -16022,10 +16009,10 @@
         <v>11</v>
       </c>
       <c r="D899">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E899">
-        <v>104.21</v>
+        <v>118.33</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.35">
@@ -16039,10 +16026,10 @@
         <v>12</v>
       </c>
       <c r="D900">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E900">
-        <v>111.07</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.35">
@@ -16056,10 +16043,10 @@
         <v>13</v>
       </c>
       <c r="D901">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E901">
-        <v>118.33</v>
+        <v>111.07</v>
       </c>
     </row>
   </sheetData>
